--- a/SensitivityAnalysisSpreadSheets/Holdback Bar Time/HoldbackBarTime10 Aircraft 9_1_+75%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/Holdback Bar Time/HoldbackBarTime10 Aircraft 9_1_+75%.xlsx
@@ -76485,6 +76485,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>14.77</v>
+      </c>
       <c r="C2" t="n">
         <v>487.4766666666666</v>
       </c>
@@ -76540,6 +76543,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>14.02583333333333</v>
+      </c>
       <c r="C3" t="n">
         <v>466.0344444444445</v>
       </c>
@@ -76595,6 +76601,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>14.37466666666667</v>
+      </c>
       <c r="C4" t="n">
         <v>470.6866666666667</v>
       </c>
@@ -76650,6 +76659,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>14.23316666666667</v>
+      </c>
       <c r="C5" t="n">
         <v>474.0872222222222</v>
       </c>
@@ -76705,6 +76717,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>12.443</v>
+      </c>
       <c r="C6" t="n">
         <v>449.5494444444445</v>
       </c>
@@ -76760,6 +76775,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>13.58566666666667</v>
+      </c>
       <c r="C7" t="n">
         <v>456.6538888888889</v>
       </c>
@@ -76815,6 +76833,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>14.51733333333333</v>
+      </c>
       <c r="C8" t="n">
         <v>466.4677777777778</v>
       </c>
@@ -76870,6 +76891,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>13.8895</v>
+      </c>
       <c r="C9" t="n">
         <v>461.5088888888889</v>
       </c>
@@ -76925,6 +76949,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>14.21316666666667</v>
+      </c>
       <c r="C10" t="n">
         <v>440.8505555555556</v>
       </c>
@@ -76980,6 +77007,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>13.034</v>
+      </c>
       <c r="C11" t="n">
         <v>472.5055555555555</v>
       </c>
@@ -77035,6 +77065,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>15.1755</v>
+      </c>
       <c r="C12" t="n">
         <v>487.1450000000001</v>
       </c>
@@ -77090,6 +77123,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>14.38383333333333</v>
+      </c>
       <c r="C13" t="n">
         <v>478.1866666666667</v>
       </c>
@@ -77145,6 +77181,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>14.99866666666667</v>
+      </c>
       <c r="C14" t="n">
         <v>457.9738888888888</v>
       </c>
@@ -77200,6 +77239,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>12.73266666666667</v>
+      </c>
       <c r="C15" t="n">
         <v>451.0655555555555</v>
       </c>
@@ -77255,6 +77297,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>13.691</v>
+      </c>
       <c r="C16" t="n">
         <v>451.1327777777777</v>
       </c>
@@ -77310,6 +77355,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>15.42316666666667</v>
+      </c>
       <c r="C17" t="n">
         <v>471.4672222222222</v>
       </c>
@@ -77365,6 +77413,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>14.57766666666667</v>
+      </c>
       <c r="C18" t="n">
         <v>467.2955555555556</v>
       </c>
@@ -77420,6 +77471,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>13.96866666666667</v>
+      </c>
       <c r="C19" t="n">
         <v>476.0455555555556</v>
       </c>
@@ -77475,6 +77529,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>14.62016666666667</v>
+      </c>
       <c r="C20" t="n">
         <v>475.4516666666667</v>
       </c>
@@ -77530,6 +77587,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>14.08983333333333</v>
+      </c>
       <c r="C21" t="n">
         <v>468.9238888888889</v>
       </c>
@@ -77585,6 +77645,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>14.88516666666667</v>
+      </c>
       <c r="C22" t="n">
         <v>467.6094444444444</v>
       </c>
@@ -77640,6 +77703,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>15.88983333333333</v>
+      </c>
       <c r="C23" t="n">
         <v>504.0061111111111</v>
       </c>
@@ -77695,6 +77761,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>13.19033333333334</v>
+      </c>
       <c r="C24" t="n">
         <v>447.4777777777778</v>
       </c>
@@ -77750,6 +77819,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>15.48983333333333</v>
+      </c>
       <c r="C25" t="n">
         <v>493.4116666666666</v>
       </c>
@@ -77805,6 +77877,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>15.16166666666667</v>
+      </c>
       <c r="C26" t="n">
         <v>479.0022222222221</v>
       </c>
@@ -77860,6 +77935,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>13.87216666666667</v>
+      </c>
       <c r="C27" t="n">
         <v>480.6366666666667</v>
       </c>
@@ -77915,6 +77993,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>15.87833333333333</v>
+      </c>
       <c r="C28" t="n">
         <v>486.095</v>
       </c>
@@ -77970,6 +78051,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>13.408</v>
+      </c>
       <c r="C29" t="n">
         <v>457.4583333333334</v>
       </c>
@@ -78025,6 +78109,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>14.90533333333333</v>
+      </c>
       <c r="C30" t="n">
         <v>488.9166666666667</v>
       </c>
@@ -78079,6 +78166,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>15.94583333333333</v>
       </c>
       <c r="C31" t="n">
         <v>479.7833333333332</v>
